--- a/PCB_ELAB/Project Outputs for PCB_Project1/57423655.xlsx
+++ b/PCB_ELAB/Project Outputs for PCB_Project1/57423655.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Jorge\UPM\master\ELAB\Trabajo ELAB\PCB_ELAB\Project Outputs for PCB_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6465C2D-B81A-4C62-97BB-6D2CBD5A80EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F01B5-24F0-4BD4-BB5A-B473FED349E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="11850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>Índice</t>
   </si>
@@ -253,13 +253,16 @@
   </si>
   <si>
     <t>Precio total (€)</t>
+  </si>
+  <si>
+    <t>88501_2207043</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -268,6 +271,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -286,14 +294,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,11 +635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -627,654 +652,655 @@
     <col min="9" max="9" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f t="shared" ref="H2:H23" si="0">G2*B2</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2">
         <v>0.55200000000000005</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>5.5200000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
         <v>0.26600000000000001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>2.66</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>0.39</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2">
         <v>0.15</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="2">
         <v>0.8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="2">
         <v>0.15</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="2">
         <v>0.1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="2">
         <v>0.623</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>8.7219999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="2">
         <v>0.16900000000000001</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>1.6900000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15">
-        <v>885012207043</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="2">
         <v>0.126</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>1.26</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="2">
         <v>0.152</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="2">
         <v>0.23</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>1.1500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="2">
         <v>0.17299999999999999</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
         <v>1.73</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="2">
         <v>0.86</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="2">
         <v>1.61</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="2">
         <v>0.82299999999999995</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f t="shared" si="0"/>
         <v>8.23</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <f>SUM(H2:H23)</f>
         <v>60.311999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>